--- a/Звіт Jet A-1.xlsx
+++ b/Звіт Jet A-1.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,14 +14,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Лист1'!$B$1:$E$24</definedName>
   </definedNames>
-  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0001"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <name val="Arial"/>
       <charset val="204"/>
@@ -29,8 +30,17 @@
     </font>
     <font>
       <name val="Arial"/>
-      <charset val="204"/>
-      <family val="2"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
       <sz val="10"/>
     </font>
     <font>
@@ -76,8 +86,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FFCCFFCC"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -90,155 +100,164 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
+      <top style="hair"/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair"/>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
+      <left style="hair"/>
+      <right style="hair"/>
       <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
+      <left style="hair"/>
+      <right style="hair"/>
       <top/>
-      <bottom/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+  <cellStyleXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="30">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="20">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
-    <cellStyle name="Excel Built-in Normal" xfId="1"/>
+  <cellStyles count="7">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+    <cellStyle name="Excel Built-in Normal" xfId="6"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -297,23 +316,15 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Офіс">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -321,44 +332,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Офіс">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -385,32 +396,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -437,27 +430,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Офіс">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -466,554 +441,580 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.13671875" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="7.85546875" customWidth="1" style="1" min="1" max="1"/>
-    <col width="7.42578125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="9.140625" customWidth="1" style="1" min="3" max="3"/>
-    <col width="69.42578125" customWidth="1" style="1" min="4" max="4"/>
-    <col width="50" customWidth="1" style="1" min="5" max="5"/>
-    <col width="9.140625" customWidth="1" style="1" min="6" max="7"/>
-    <col width="14.5703125" customWidth="1" style="1" min="8" max="8"/>
-    <col width="11" customWidth="1" style="1" min="9" max="9"/>
-    <col width="9.140625" customWidth="1" style="1" min="10" max="1024"/>
+    <col width="7.87" customWidth="1" style="13" min="1" max="1"/>
+    <col width="7.41" customWidth="1" style="13" min="2" max="2"/>
+    <col width="9.130000000000001" customWidth="1" style="13" min="3" max="3"/>
+    <col width="69.42" customWidth="1" style="13" min="4" max="4"/>
+    <col width="50" customWidth="1" style="13" min="5" max="5"/>
+    <col width="9.130000000000001" customWidth="1" style="13" min="6" max="7"/>
+    <col width="14.57" customWidth="1" style="13" min="8" max="8"/>
+    <col width="10.99" customWidth="1" style="13" min="9" max="9"/>
+    <col width="9.130000000000001" customWidth="1" style="13" min="10" max="1024"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" customHeight="1">
-      <c r="B1" s="11" t="inlineStr">
+    <row r="1" ht="33.75" customHeight="1" s="14">
+      <c r="B1" s="15" t="inlineStr">
         <is>
           <t>Звіт</t>
         </is>
       </c>
-      <c r="C1" s="12" t="n"/>
-      <c r="D1" s="12" t="n"/>
-      <c r="E1" s="13" t="n"/>
-    </row>
-    <row r="2" ht="33.75" customHeight="1">
-      <c r="A2" t="inlineStr">
+      <c r="C1" s="16" t="n"/>
+      <c r="D1" s="16" t="n"/>
+      <c r="E1" s="17" t="n"/>
+    </row>
+    <row r="2" ht="33.75" customHeight="1" s="14">
+      <c r="A2" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">      </t>
         </is>
       </c>
-      <c r="B2" s="11" t="inlineStr">
+      <c r="B2" s="15" t="inlineStr">
         <is>
           <t>по руху палива JEТA-1 ПАТ "Укртатнафта" в а/п Львів</t>
         </is>
       </c>
-      <c r="C2" s="12" t="n"/>
-      <c r="D2" s="12" t="n"/>
-      <c r="E2" s="13" t="n"/>
-    </row>
-    <row r="3" ht="33.75" customHeight="1">
-      <c r="B3" s="14" t="inlineStr">
-        <is>
-          <t>Дата: 16.09.2021</t>
-        </is>
-      </c>
-      <c r="C3" s="12" t="n"/>
-      <c r="D3" s="12" t="n"/>
-      <c r="E3" s="13" t="n"/>
-      <c r="F3" t="inlineStr">
+      <c r="C2" s="16" t="n"/>
+      <c r="D2" s="16" t="n"/>
+      <c r="E2" s="17" t="n"/>
+    </row>
+    <row r="3" ht="33.75" customHeight="1" s="14">
+      <c r="B3" s="19" t="inlineStr">
+        <is>
+          <t>Дата: 23.08.2021</t>
+        </is>
+      </c>
+      <c r="C3" s="16" t="n"/>
+      <c r="D3" s="16" t="n"/>
+      <c r="E3" s="17" t="n"/>
+      <c r="F3" s="18" t="inlineStr">
         <is>
           <t>.</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="33" customHeight="1">
-      <c r="B4" s="17" t="n"/>
-      <c r="C4" s="15" t="inlineStr">
+    <row r="4" ht="33" customHeight="1" s="14">
+      <c r="B4" s="20" t="n"/>
+      <c r="C4" s="21" t="inlineStr">
         <is>
           <t>Авіакомпанія</t>
         </is>
       </c>
-      <c r="D4" s="13" t="n"/>
-      <c r="E4" s="15" t="n"/>
-    </row>
-    <row r="5" ht="33" customHeight="1">
-      <c r="B5" s="16" t="n">
+      <c r="D4" s="17" t="n"/>
+      <c r="E4" s="21" t="n"/>
+    </row>
+    <row r="5" ht="33" customHeight="1" s="14">
+      <c r="B5" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="16" t="inlineStr">
+      <c r="C5" s="22" t="inlineStr">
         <is>
           <t>МАУ</t>
         </is>
       </c>
-      <c r="D5" s="13" t="n"/>
-      <c r="E5" s="4" t="n"/>
-    </row>
-    <row r="6" ht="33" customHeight="1">
-      <c r="B6" s="15" t="n">
+      <c r="D5" s="17" t="n"/>
+      <c r="E5" s="23" t="n"/>
+    </row>
+    <row r="6" ht="33" customHeight="1" s="14">
+      <c r="B6" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="17" t="inlineStr">
+      <c r="C6" s="20" t="inlineStr">
         <is>
           <t>Роза</t>
         </is>
       </c>
-      <c r="D6" s="13" t="n"/>
-      <c r="E6" s="15" t="n">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="7" ht="33" customHeight="1">
-      <c r="B7" s="15" t="n">
+      <c r="D6" s="17" t="n"/>
+      <c r="E6" s="21" t="n"/>
+    </row>
+    <row r="7" ht="33" customHeight="1" s="14">
+      <c r="B7" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="C7" s="17" t="inlineStr">
+      <c r="C7" s="20" t="inlineStr">
         <is>
           <t>JetLux LTD</t>
         </is>
       </c>
-      <c r="D7" s="13" t="n"/>
-      <c r="E7" s="15" t="n"/>
-      <c r="G7" s="2" t="n"/>
-    </row>
-    <row r="8" ht="33" customHeight="1">
-      <c r="B8" s="4" t="n">
+      <c r="D7" s="17" t="n"/>
+      <c r="E7" s="21" t="n"/>
+      <c r="G7" s="24" t="n"/>
+    </row>
+    <row r="8" ht="33" customHeight="1" s="14">
+      <c r="B8" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="C8" s="16" t="inlineStr">
+      <c r="C8" s="22" t="inlineStr">
         <is>
           <t>БІЗ ЕЙРЛАЙНЗ</t>
         </is>
       </c>
-      <c r="D8" s="13" t="n"/>
-      <c r="E8" s="4" t="n"/>
-      <c r="G8" s="2" t="n"/>
-    </row>
-    <row r="9" ht="33" customHeight="1">
-      <c r="B9" s="15" t="n">
+      <c r="D8" s="17" t="n"/>
+      <c r="E8" s="23" t="n"/>
+      <c r="G8" s="24" t="n"/>
+    </row>
+    <row r="9" ht="33" customHeight="1" s="14">
+      <c r="B9" s="21" t="n">
         <v>5</v>
       </c>
-      <c r="C9" s="17" t="inlineStr">
+      <c r="C9" s="20" t="inlineStr">
         <is>
           <t>World Fuel Services Europe LTD</t>
         </is>
       </c>
-      <c r="D9" s="13" t="n"/>
-      <c r="E9" s="15" t="n"/>
-      <c r="I9" s="3" t="n"/>
-    </row>
-    <row r="10" ht="33" customHeight="1">
-      <c r="B10" s="15" t="n">
+      <c r="D9" s="17" t="n"/>
+      <c r="E9" s="21" t="n"/>
+      <c r="I9" s="25" t="n"/>
+    </row>
+    <row r="10" ht="33" customHeight="1" s="14">
+      <c r="B10" s="21" t="n">
         <v>6</v>
       </c>
-      <c r="C10" s="17" t="inlineStr">
+      <c r="C10" s="20" t="inlineStr">
         <is>
           <t>УРГА</t>
         </is>
       </c>
-      <c r="D10" s="13" t="n"/>
-      <c r="E10" s="15" t="n"/>
-    </row>
-    <row r="11" ht="33" customHeight="1">
-      <c r="B11" s="15" t="n">
+      <c r="D10" s="17" t="n"/>
+      <c r="E10" s="21" t="n"/>
+    </row>
+    <row r="11" ht="33" customHeight="1" s="14">
+      <c r="B11" s="21" t="n">
         <v>7</v>
       </c>
-      <c r="C11" s="17" t="inlineStr">
+      <c r="C11" s="20" t="inlineStr">
         <is>
           <t>AIR PINK D.O.O.</t>
         </is>
       </c>
-      <c r="D11" s="13" t="n"/>
-      <c r="E11" s="15" t="n"/>
-    </row>
-    <row r="12" ht="33" customHeight="1">
-      <c r="B12" s="15" t="n">
+      <c r="D11" s="17" t="n"/>
+      <c r="E11" s="21" t="n"/>
+    </row>
+    <row r="12" ht="33" customHeight="1" s="14">
+      <c r="B12" s="21" t="n">
         <v>8</v>
       </c>
-      <c r="C12" s="17" t="inlineStr">
+      <c r="C12" s="20" t="inlineStr">
         <is>
           <t>Колумбус Хендлінг</t>
         </is>
       </c>
-      <c r="D12" s="13" t="n"/>
-      <c r="E12" s="15" t="n"/>
-    </row>
-    <row r="13" ht="33" customHeight="1">
-      <c r="B13" s="15" t="n">
+      <c r="D12" s="17" t="n"/>
+      <c r="E12" s="21" t="n"/>
+    </row>
+    <row r="13" ht="33" customHeight="1" s="14">
+      <c r="B13" s="21" t="n">
         <v>9</v>
       </c>
-      <c r="C13" s="17" t="inlineStr">
+      <c r="C13" s="20" t="inlineStr">
         <is>
           <t>Челендж Аеро Юкрейн</t>
         </is>
       </c>
-      <c r="D13" s="13" t="n"/>
-      <c r="E13" s="15" t="n"/>
-    </row>
-    <row r="14" ht="33" customHeight="1">
-      <c r="B14" s="15" t="n">
+      <c r="D13" s="17" t="n"/>
+      <c r="E13" s="21" t="n"/>
+    </row>
+    <row r="14" ht="33" customHeight="1" s="14">
+      <c r="B14" s="21" t="n">
         <v>10</v>
       </c>
-      <c r="C14" s="17" t="inlineStr">
+      <c r="C14" s="20" t="inlineStr">
         <is>
           <t>Челлендж Аерокоптер</t>
         </is>
       </c>
-      <c r="D14" s="13" t="n"/>
-      <c r="E14" s="15" t="n"/>
-    </row>
-    <row r="15" ht="33" customHeight="1">
-      <c r="B15" s="15" t="n">
+      <c r="D14" s="17" t="n"/>
+      <c r="E14" s="21" t="n"/>
+    </row>
+    <row r="15" ht="33" customHeight="1" s="14">
+      <c r="B15" s="21" t="n">
         <v>11</v>
       </c>
-      <c r="C15" s="17" t="inlineStr">
+      <c r="C15" s="20" t="inlineStr">
         <is>
           <t>ПАТ "МААК" УРГА"</t>
         </is>
       </c>
-      <c r="D15" s="13" t="n"/>
-      <c r="E15" s="15" t="n"/>
-    </row>
-    <row r="16" ht="33" customHeight="1">
-      <c r="B16" s="15" t="n">
+      <c r="D15" s="17" t="n"/>
+      <c r="E15" s="21" t="n"/>
+    </row>
+    <row r="16" ht="33" customHeight="1" s="14">
+      <c r="B16" s="21" t="n">
         <v>12</v>
       </c>
-      <c r="C16" s="17" t="inlineStr">
+      <c r="C16" s="20" t="inlineStr">
         <is>
           <t>Дніпроавіасервіс</t>
         </is>
       </c>
-      <c r="D16" s="13" t="n"/>
-      <c r="E16" s="15" t="n"/>
-    </row>
-    <row r="17" ht="33" customHeight="1">
-      <c r="B17" s="4" t="n">
+      <c r="D16" s="17" t="n"/>
+      <c r="E16" s="21" t="n"/>
+    </row>
+    <row r="17" ht="33" customHeight="1" s="14">
+      <c r="B17" s="23" t="n">
         <v>13</v>
       </c>
-      <c r="C17" s="16" t="inlineStr">
+      <c r="C17" s="22" t="inlineStr">
         <is>
           <t>OSAGAU CHEMICALS</t>
         </is>
       </c>
-      <c r="D17" s="13" t="n"/>
-      <c r="E17" s="4" t="n"/>
-    </row>
-    <row r="18" ht="33" customHeight="1">
-      <c r="B18" s="4" t="n">
+      <c r="D17" s="17" t="n"/>
+      <c r="E17" s="23" t="n"/>
+    </row>
+    <row r="18" ht="33" customHeight="1" s="14">
+      <c r="B18" s="23" t="n">
         <v>14</v>
       </c>
-      <c r="C18" s="16" t="inlineStr">
+      <c r="C18" s="22" t="inlineStr">
         <is>
           <t>СКАЙ АП</t>
         </is>
       </c>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="4" t="n"/>
-    </row>
-    <row r="19" ht="33" customHeight="1">
-      <c r="B19" s="15" t="n">
+      <c r="D18" s="17" t="n"/>
+      <c r="E18" s="23" t="n"/>
+    </row>
+    <row r="19" ht="33" customHeight="1" s="14">
+      <c r="B19" s="21" t="n">
         <v>15</v>
       </c>
-      <c r="C19" s="17" t="inlineStr">
+      <c r="C19" s="20" t="inlineStr">
         <is>
           <t>Associated AEG</t>
         </is>
       </c>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="15" t="n"/>
-    </row>
-    <row r="20" ht="33" customHeight="1">
-      <c r="B20" s="15" t="n">
+      <c r="D19" s="17" t="n"/>
+      <c r="E19" s="21" t="n"/>
+    </row>
+    <row r="20" ht="33" customHeight="1" s="14">
+      <c r="B20" s="21" t="n">
         <v>16</v>
       </c>
-      <c r="C20" s="17" t="inlineStr">
+      <c r="C20" s="20" t="inlineStr">
         <is>
           <t>AEG Fuels</t>
         </is>
       </c>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="15" t="n"/>
-    </row>
-    <row r="21" ht="33" customHeight="1">
-      <c r="B21" s="17" t="n"/>
-      <c r="C21" s="15" t="inlineStr">
+      <c r="D20" s="17" t="n"/>
+      <c r="E20" s="21" t="n"/>
+    </row>
+    <row r="21" ht="33" customHeight="1" s="14">
+      <c r="B21" s="20" t="n"/>
+      <c r="C21" s="21" t="inlineStr">
         <is>
           <t>Всього видано на пероні</t>
         </is>
       </c>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="7" t="n">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="22" ht="33" customHeight="1">
-      <c r="B22" s="18" t="n"/>
-      <c r="C22" s="15" t="inlineStr">
+      <c r="D21" s="17" t="n"/>
+      <c r="E21" s="26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="33" customHeight="1" s="14">
+      <c r="B22" s="27" t="n"/>
+      <c r="C22" s="21" t="inlineStr">
         <is>
           <t>Самовивозом зі складу ПММ</t>
         </is>
       </c>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="15" t="n"/>
-    </row>
-    <row r="23" ht="33" customHeight="1">
-      <c r="B23" s="18" t="n"/>
-      <c r="C23" s="15" t="inlineStr">
+      <c r="D22" s="17" t="n"/>
+      <c r="E22" s="21" t="n">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="23" ht="33" customHeight="1" s="14">
+      <c r="B23" s="27" t="n"/>
+      <c r="C23" s="21" t="inlineStr">
         <is>
           <t>Прибуток палива</t>
         </is>
       </c>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" ht="33" customHeight="1">
-      <c r="B24" s="19" t="n"/>
-      <c r="C24" s="17" t="inlineStr">
+      <c r="D23" s="17" t="n"/>
+      <c r="E23" s="28" t="n">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="24" ht="33" customHeight="1" s="14">
+      <c r="B24" s="29" t="n"/>
+      <c r="C24" s="20" t="inlineStr">
         <is>
           <t>Залишок на складі ПММ</t>
         </is>
       </c>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="7" t="n">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="25" ht="33" customHeight="1">
-      <c r="B25" s="6" t="n"/>
-      <c r="C25" s="6" t="n"/>
-      <c r="D25" s="6" t="n"/>
-      <c r="E25" s="6" t="n"/>
-    </row>
-    <row r="26" ht="33" customHeight="1">
-      <c r="B26" s="17" t="inlineStr">
+      <c r="D24" s="17" t="n"/>
+      <c r="E24" s="26" t="n">
+        <v>1300000</v>
+      </c>
+    </row>
+    <row r="25" ht="33" customHeight="1" s="14">
+      <c r="B25" s="18" t="n"/>
+      <c r="C25" s="18" t="n"/>
+      <c r="D25" s="18" t="n"/>
+      <c r="E25" s="18" t="n"/>
+    </row>
+    <row r="26" ht="33" customHeight="1" s="14">
+      <c r="B26" s="20" t="inlineStr">
         <is>
           <t>Провідний інженер СПММ                    Балашов В.П.</t>
         </is>
       </c>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="12" t="n"/>
-      <c r="E26" s="13" t="n"/>
+      <c r="C26" s="16" t="n"/>
+      <c r="D26" s="16" t="n"/>
+      <c r="E26" s="17" t="n"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" algorithmName="SHA-512" sheet="1" objects="1" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="1" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" saltValue="MXyfoaFFaqTyvqiQEgog6w==" formatRows="1" sort="1" spinCount="100000" hashValue="H41uGY8cT3liP4nd0hZHRtf6CpJhmLptifjVVmiP/GMILinZd0gUbPuw5dDI0lY1Y3sq2DFOzHOyGKBfZ/WdWw=="/>
   <mergeCells count="26">
-    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B26:E26"/>
   </mergeCells>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup orientation="portrait" paperSize="9" firstPageNumber="0" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A25" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="8.7109375" customWidth="1" style="1" min="1" max="1024"/>
+    <col width="8.710000000000001" customWidth="1" style="13" min="1" max="1024"/>
   </cols>
   <sheetData/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup orientation="portrait" firstPageNumber="0" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="8.7109375" customWidth="1" style="1" min="1" max="1024"/>
+    <col width="8.710000000000001" customWidth="1" style="13" min="1" max="1024"/>
   </cols>
   <sheetData/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup orientation="portrait" firstPageNumber="0" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>